--- a/作業スケジュール.xlsx
+++ b/作業スケジュール.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="11415" windowHeight="9375"/>
+    <workbookView windowWidth="22935" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>8月27日まで完成させる</t>
   </si>
@@ -226,6 +226,9 @@
     <t>爆弾の色はプランナーからの指示通りの色を配置すること</t>
   </si>
   <si>
+    <t>第二派生の火属性の部分も含む</t>
+  </si>
+  <si>
     <t>ギミック担当</t>
   </si>
   <si>
@@ -250,6 +253,9 @@
     <t>※ギミック班は第一派生の効果を第二派生でも使うため使えるように引数のある関数にすること</t>
   </si>
   <si>
+    <t>第二派生の氷属性の部分も含む</t>
+  </si>
+  <si>
     <t>山本</t>
   </si>
   <si>
@@ -263,6 +269,9 @@
   </si>
   <si>
     <t>氷ブロックは生成してから７秒で消える</t>
+  </si>
+  <si>
+    <t>第二派生の風属性の部分も含む</t>
   </si>
   <si>
     <t>柴田　</t>
@@ -369,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -398,7 +407,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -407,7 +424,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,53 +469,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,24 +491,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,6 +528,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -526,16 +543,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,13 +571,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,157 +733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,17 +777,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -790,6 +788,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,15 +858,15 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,125 +882,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,18 +1020,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1343,10 +1349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:X91"/>
+  <dimension ref="B1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C65" workbookViewId="0">
-      <selection activeCell="W79" sqref="W79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C47" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1389,10 +1395,10 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="S5" s="7">
+      <c r="S5" s="9">
         <v>42592</v>
       </c>
-      <c r="T5" s="7"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="7:20">
       <c r="G6" s="3" t="s">
@@ -1400,8 +1406,8 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="7:20">
       <c r="G7" s="1" t="s">
@@ -1409,8 +1415,8 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="7:20">
       <c r="G8" s="3" t="s">
@@ -1418,8 +1424,8 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="7:20">
       <c r="G9" s="3" t="s">
@@ -1466,10 +1472,10 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="S13" s="7">
+      <c r="S13" s="9">
         <v>42593</v>
       </c>
-      <c r="T13" s="7"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="2"/>
@@ -1478,8 +1484,8 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="7:20">
       <c r="G15" s="3" t="s">
@@ -1487,10 +1493,10 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="S15" s="7">
+      <c r="S15" s="9">
         <v>42592</v>
       </c>
-      <c r="T15" s="7"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" spans="7:20">
       <c r="G16" s="3" t="s">
@@ -1498,8 +1504,8 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" spans="7:20">
       <c r="G17" s="3" t="s">
@@ -1507,8 +1513,8 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="19" spans="7:14">
       <c r="G19" s="2" t="s">
@@ -1547,11 +1553,11 @@
         <v>23</v>
       </c>
       <c r="T20" s="2"/>
-      <c r="U20" s="8" t="s">
+      <c r="U20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" spans="8:20">
       <c r="H21" s="1" t="s">
@@ -1677,10 +1683,10 @@
       <c r="H29" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P29" s="6"/>
+      <c r="P29" s="8"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="2" t="s">
@@ -1699,8 +1705,8 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
       <c r="S30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1715,8 +1721,8 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
       <c r="S31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1731,8 +1737,8 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
@@ -1746,8 +1752,8 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
@@ -1759,8 +1765,8 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
       <c r="S34" s="2" t="s">
         <v>46</v>
       </c>
@@ -1774,8 +1780,8 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
@@ -1787,8 +1793,8 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="3"/>
@@ -1837,11 +1843,11 @@
         <v>53</v>
       </c>
       <c r="T39" s="2"/>
-      <c r="U39" s="9" t="s">
+      <c r="U39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
     </row>
     <row r="40" spans="8:22">
       <c r="H40" s="1"/>
@@ -1886,11 +1892,11 @@
         <v>58</v>
       </c>
       <c r="T43" s="2"/>
-      <c r="U43" s="8" t="s">
+      <c r="U43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
     </row>
     <row r="45" spans="4:20">
       <c r="D45" s="2" t="s">
@@ -1902,9 +1908,15 @@
       <c r="G45" t="s">
         <v>60</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="S45" s="2" t="s">
         <v>42</v>
       </c>
@@ -1936,6 +1948,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
       <c r="S48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1952,6 +1965,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
@@ -1966,6 +1980,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
@@ -1980,6 +1995,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
@@ -2012,11 +2028,11 @@
       <c r="R53" s="3"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="9" t="s">
+      <c r="U53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
     </row>
     <row r="54" spans="8:22">
       <c r="H54" s="1"/>
@@ -2035,41 +2051,49 @@
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
     </row>
+    <row r="55" spans="8:11">
+      <c r="H55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
     <row r="56" spans="4:24">
       <c r="D56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T56" s="2"/>
-      <c r="U56" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
+      <c r="U56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
     </row>
     <row r="57" spans="8:20">
       <c r="H57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
     <row r="58" spans="8:20">
       <c r="H58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>42</v>
@@ -2078,288 +2102,308 @@
     </row>
     <row r="60" spans="8:8">
       <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="6:20">
-      <c r="F61">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11">
+      <c r="H61" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="6:20">
+      <c r="F62">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s">
-        <v>79</v>
-      </c>
-      <c r="S61" s="10" t="s">
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>81</v>
+      </c>
+      <c r="S62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T61" s="10"/>
-    </row>
-    <row r="62" spans="8:20">
-      <c r="H62" t="s">
-        <v>80</v>
-      </c>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
+      <c r="T62" s="2"/>
     </row>
     <row r="63" spans="8:20">
       <c r="H63" t="s">
-        <v>81</v>
-      </c>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
     </row>
     <row r="64" spans="8:20">
       <c r="H64" t="s">
-        <v>82</v>
-      </c>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-    </row>
-    <row r="66" spans="6:20">
-      <c r="F66">
+        <v>83</v>
+      </c>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="8:20">
+      <c r="H65" t="s">
+        <v>84</v>
+      </c>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="19:20">
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="8:11">
+      <c r="H67" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="6:20">
+      <c r="F68">
         <v>2</v>
       </c>
-      <c r="G66" t="s">
-        <v>83</v>
-      </c>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-      <c r="S66" s="2" t="s">
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s">
+        <v>87</v>
+      </c>
+      <c r="S68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="8:20">
-      <c r="H67" t="s">
-        <v>85</v>
-      </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-    </row>
-    <row r="68" spans="8:20">
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-      <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="8:24">
+    <row r="69" spans="8:20">
       <c r="H69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-      <c r="U69" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-    </row>
-    <row r="71" spans="7:7">
-      <c r="G71" t="s">
+    </row>
+    <row r="70" spans="8:20">
+      <c r="H70" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="73" spans="4:21">
-      <c r="D73" t="s">
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" spans="8:24">
+      <c r="H71" t="s">
         <v>90</v>
       </c>
-      <c r="F73">
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="4:21">
+      <c r="D75" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75">
         <v>1</v>
       </c>
-      <c r="G73" t="s">
-        <v>83</v>
-      </c>
-      <c r="H73" t="s">
-        <v>91</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T73" s="2"/>
-      <c r="U73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="8:20">
-      <c r="H74" t="s">
+      <c r="G75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s">
         <v>94</v>
       </c>
-      <c r="S74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T74" s="2"/>
-    </row>
-    <row r="75" spans="8:20">
-      <c r="H75" t="s">
+      <c r="S75" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="S75" s="2"/>
       <c r="T75" s="2"/>
+      <c r="U75" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="76" spans="8:20">
       <c r="H76" t="s">
-        <v>96</v>
-      </c>
-      <c r="S76" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="8:21">
+    <row r="77" spans="8:20">
       <c r="H77" t="s">
-        <v>97</v>
-      </c>
-      <c r="S77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="8:20">
+      <c r="H78" t="s">
+        <v>99</v>
+      </c>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" spans="8:21">
+      <c r="H79" t="s">
+        <v>100</v>
+      </c>
+      <c r="S79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T77" s="2"/>
-      <c r="U77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="4:20">
-      <c r="D79" t="s">
-        <v>99</v>
-      </c>
-      <c r="F79">
+      <c r="T79" s="2"/>
+      <c r="U79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="4:20">
+      <c r="D81" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81">
         <v>5</v>
       </c>
-      <c r="G79" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" t="s">
-        <v>101</v>
-      </c>
-      <c r="S79" s="2" t="s">
+      <c r="G81" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" t="s">
+        <v>104</v>
+      </c>
+      <c r="S81" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T79" s="2"/>
-    </row>
-    <row r="80" spans="8:20">
-      <c r="H80" t="s">
-        <v>102</v>
-      </c>
-      <c r="S80" s="2" t="s">
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="8:20">
+      <c r="H82" t="s">
+        <v>105</v>
+      </c>
+      <c r="S82" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T80" s="2"/>
-    </row>
-    <row r="81" spans="8:23">
-      <c r="H81" t="s">
+      <c r="T82" s="2"/>
+    </row>
+    <row r="83" spans="8:23">
+      <c r="H83" t="s">
+        <v>106</v>
+      </c>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="85" spans="4:23">
+      <c r="D85" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
         <v>103</v>
       </c>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-    </row>
-    <row r="83" spans="4:23">
-      <c r="D83" t="s">
-        <v>104</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83" t="s">
-        <v>100</v>
-      </c>
-      <c r="H83" t="s">
-        <v>105</v>
-      </c>
-      <c r="S83" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T83" s="2"/>
-      <c r="U83" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-    </row>
-    <row r="84" spans="8:20">
-      <c r="H84" t="s">
-        <v>107</v>
-      </c>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-    </row>
-    <row r="85" spans="8:20">
       <c r="H85" t="s">
         <v>108</v>
       </c>
-      <c r="S85" s="2"/>
+      <c r="S85" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="T85" s="2"/>
-    </row>
-    <row r="86" spans="8:23">
+      <c r="U85" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="8:20">
       <c r="H86" t="s">
-        <v>109</v>
-      </c>
-      <c r="S86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+    </row>
+    <row r="87" spans="8:20">
+      <c r="H87" t="s">
+        <v>111</v>
+      </c>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88" spans="8:23">
+      <c r="H88" t="s">
+        <v>112</v>
+      </c>
+      <c r="S88" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T86" s="2"/>
-      <c r="U86" s="9" t="s">
+      <c r="T88" s="2"/>
+      <c r="U88" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-    </row>
-    <row r="88" spans="4:22">
-      <c r="D88" t="s">
-        <v>110</v>
-      </c>
-      <c r="F88">
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+    </row>
+    <row r="90" spans="4:22">
+      <c r="D90" t="s">
+        <v>113</v>
+      </c>
+      <c r="F90">
         <v>4</v>
       </c>
-      <c r="G88" t="s">
-        <v>100</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="S88" s="2" t="s">
+      <c r="G90" t="s">
+        <v>103</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S90" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T88" s="2"/>
-      <c r="U88" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="V88" s="8"/>
-    </row>
-    <row r="89" spans="8:20">
-      <c r="H89" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-    </row>
-    <row r="90" spans="8:20">
-      <c r="H90" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="S90" s="2"/>
       <c r="T90" s="2"/>
-    </row>
-    <row r="91" spans="8:23">
-      <c r="H91" s="11" t="s">
+      <c r="U90" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="V90" s="1"/>
+    </row>
+    <row r="91" spans="8:20">
+      <c r="H91" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
-      <c r="U91" s="9" t="s">
+    </row>
+    <row r="92" spans="8:20">
+      <c r="H92" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93" spans="8:23">
+      <c r="H93" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="80">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="D5:E5"/>
@@ -2394,28 +2438,32 @@
     <mergeCell ref="S43:T43"/>
     <mergeCell ref="U43:W43"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H45:N45"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H48:N48"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="H50:O50"/>
-    <mergeCell ref="H51:O51"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="H49:P49"/>
+    <mergeCell ref="H50:P50"/>
+    <mergeCell ref="H51:P51"/>
     <mergeCell ref="H52:L52"/>
     <mergeCell ref="H53:M53"/>
     <mergeCell ref="U53:W53"/>
+    <mergeCell ref="H55:K55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="U56:X56"/>
     <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U69:X69"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="U71:X71"/>
+    <mergeCell ref="S75:T75"/>
     <mergeCell ref="S79:T79"/>
-    <mergeCell ref="U81:W81"/>
+    <mergeCell ref="S81:T81"/>
     <mergeCell ref="U83:W83"/>
-    <mergeCell ref="S86:T86"/>
-    <mergeCell ref="U86:W86"/>
-    <mergeCell ref="U88:V88"/>
-    <mergeCell ref="U91:W91"/>
+    <mergeCell ref="U85:W85"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="U88:W88"/>
+    <mergeCell ref="U90:V90"/>
+    <mergeCell ref="U93:W93"/>
     <mergeCell ref="S13:T14"/>
     <mergeCell ref="S15:T17"/>
     <mergeCell ref="S9:T12"/>
@@ -2430,12 +2478,12 @@
     <mergeCell ref="S48:T51"/>
     <mergeCell ref="S52:T53"/>
     <mergeCell ref="S56:T57"/>
-    <mergeCell ref="S66:T69"/>
-    <mergeCell ref="S74:T76"/>
-    <mergeCell ref="S80:T81"/>
-    <mergeCell ref="S83:T85"/>
-    <mergeCell ref="S88:T91"/>
-    <mergeCell ref="S61:T64"/>
+    <mergeCell ref="S62:T65"/>
+    <mergeCell ref="S68:T71"/>
+    <mergeCell ref="S76:T78"/>
+    <mergeCell ref="S82:T83"/>
+    <mergeCell ref="S85:T87"/>
+    <mergeCell ref="S90:T93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/作業スケジュール.xlsx
+++ b/作業スケジュール.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>8月27日まで完成させる</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>５時間</t>
-  </si>
-  <si>
-    <t>移動は要相談</t>
   </si>
   <si>
     <t>竹村</t>
@@ -379,18 +376,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,22 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -430,15 +404,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -454,7 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,7 +437,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,15 +488,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,28 +534,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -565,13 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,43 +579,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,55 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,55 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,15 +740,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -777,6 +758,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -788,41 +787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,8 +809,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,149 +848,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,18 +1010,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,8 +1335,8 @@
   <sheetPr/>
   <dimension ref="B1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C47" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1395,10 +1379,10 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="S5" s="9">
+      <c r="S5" s="7">
         <v>42592</v>
       </c>
-      <c r="T5" s="9"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="7:20">
       <c r="G6" s="3" t="s">
@@ -1406,8 +1390,8 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="7:20">
       <c r="G7" s="1" t="s">
@@ -1415,8 +1399,8 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="7:20">
       <c r="G8" s="3" t="s">
@@ -1424,8 +1408,8 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="7:20">
       <c r="G9" s="3" t="s">
@@ -1472,10 +1456,10 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="S13" s="9">
+      <c r="S13" s="7">
         <v>42593</v>
       </c>
-      <c r="T13" s="9"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="2"/>
@@ -1484,8 +1468,8 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="7:20">
       <c r="G15" s="3" t="s">
@@ -1493,10 +1477,10 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="S15" s="9">
+      <c r="S15" s="7">
         <v>42592</v>
       </c>
-      <c r="T15" s="9"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="7:20">
       <c r="G16" s="3" t="s">
@@ -1504,8 +1488,8 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
     </row>
     <row r="17" spans="7:20">
       <c r="G17" s="3" t="s">
@@ -1513,8 +1497,8 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
     </row>
     <row r="19" spans="7:14">
       <c r="G19" s="2" t="s">
@@ -1683,10 +1667,10 @@
       <c r="H29" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P29" s="8"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="2" t="s">
@@ -1705,8 +1689,8 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="S30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1721,8 +1705,8 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
       <c r="S31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1737,8 +1721,8 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
@@ -1752,8 +1736,8 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
@@ -1765,8 +1749,8 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
       <c r="S34" s="2" t="s">
         <v>46</v>
       </c>
@@ -1780,8 +1764,8 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
@@ -1793,8 +1777,8 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="3"/>
@@ -1899,17 +1883,16 @@
       <c r="W43" s="1"/>
     </row>
     <row r="45" spans="4:20">
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1927,10 +1910,10 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1940,7 +1923,7 @@
     </row>
     <row r="48" spans="8:20">
       <c r="H48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1956,7 +1939,7 @@
     </row>
     <row r="49" spans="8:20">
       <c r="H49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1971,7 +1954,7 @@
     </row>
     <row r="50" spans="8:20">
       <c r="H50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1986,7 +1969,7 @@
     </row>
     <row r="51" spans="8:20">
       <c r="H51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2001,7 +1984,7 @@
     </row>
     <row r="52" spans="8:20">
       <c r="H52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2014,7 +1997,7 @@
     </row>
     <row r="53" spans="8:23">
       <c r="H53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2052,33 +2035,33 @@
       <c r="V54" s="2"/>
     </row>
     <row r="55" spans="8:11">
-      <c r="H55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="H55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
     </row>
     <row r="56" spans="4:24">
       <c r="D56" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1">
         <v>1</v>
       </c>
       <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s">
         <v>72</v>
       </c>
-      <c r="H56" t="s">
+      <c r="S56" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
@@ -2086,14 +2069,14 @@
     </row>
     <row r="57" spans="8:20">
       <c r="H57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
     <row r="58" spans="8:20">
       <c r="H58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>42</v>
@@ -2102,26 +2085,26 @@
     </row>
     <row r="60" spans="8:8">
       <c r="H60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11">
+      <c r="H61" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="61" spans="8:11">
-      <c r="H61" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
     </row>
     <row r="62" spans="6:20">
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s">
         <v>80</v>
-      </c>
-      <c r="H62" t="s">
-        <v>81</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>46</v>
@@ -2130,21 +2113,21 @@
     </row>
     <row r="63" spans="8:20">
       <c r="H63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
     <row r="64" spans="8:20">
       <c r="H64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
     <row r="65" spans="8:20">
       <c r="H65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -2154,22 +2137,22 @@
       <c r="T66" s="2"/>
     </row>
     <row r="67" spans="8:11">
-      <c r="H67" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="H67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
     </row>
     <row r="68" spans="6:20">
       <c r="F68">
         <v>2</v>
       </c>
       <c r="G68" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" t="s">
         <v>86</v>
-      </c>
-      <c r="H68" t="s">
-        <v>87</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>46</v>
@@ -2178,26 +2161,26 @@
     </row>
     <row r="69" spans="8:20">
       <c r="H69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
     <row r="70" spans="8:20">
       <c r="H70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
     <row r="71" spans="8:24">
       <c r="H71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
@@ -2205,33 +2188,33 @@
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="4:21">
       <c r="D75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s">
+        <v>93</v>
+      </c>
+      <c r="S75" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="T75" s="2"/>
       <c r="U75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="8:20">
       <c r="H76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>53</v>
@@ -2240,42 +2223,42 @@
     </row>
     <row r="77" spans="8:20">
       <c r="H77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
     <row r="78" spans="8:20">
       <c r="H78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
     <row r="79" spans="8:21">
       <c r="H79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>58</v>
       </c>
       <c r="T79" s="2"/>
       <c r="U79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="4:20">
       <c r="D81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F81">
         <v>5</v>
       </c>
       <c r="G81" t="s">
+        <v>102</v>
+      </c>
+      <c r="H81" t="s">
         <v>103</v>
-      </c>
-      <c r="H81" t="s">
-        <v>104</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>33</v>
@@ -2284,7 +2267,7 @@
     </row>
     <row r="82" spans="8:20">
       <c r="H82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>33</v>
@@ -2293,7 +2276,7 @@
     </row>
     <row r="83" spans="8:23">
       <c r="H83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
@@ -2305,44 +2288,44 @@
     </row>
     <row r="85" spans="4:23">
       <c r="D85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F85">
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T85" s="2"/>
       <c r="U85" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="8:20">
       <c r="H86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="8:20">
       <c r="H87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="8:23">
       <c r="H88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>53</v>
@@ -2356,43 +2339,43 @@
     </row>
     <row r="90" spans="4:22">
       <c r="D90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F90">
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>103</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>114</v>
+        <v>102</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>50</v>
       </c>
       <c r="T90" s="2"/>
       <c r="U90" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V90" s="1"/>
+    </row>
+    <row r="91" spans="8:20">
+      <c r="H91" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="V90" s="1"/>
-    </row>
-    <row r="91" spans="8:20">
-      <c r="H91" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
     <row r="92" spans="8:20">
-      <c r="H92" s="10" t="s">
-        <v>117</v>
+      <c r="H92" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="8:23">
-      <c r="H93" s="10" t="s">
-        <v>118</v>
+      <c r="H93" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
@@ -2403,7 +2386,7 @@
       <c r="W93" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="D5:E5"/>
@@ -2437,7 +2420,6 @@
     <mergeCell ref="H43:L43"/>
     <mergeCell ref="S43:T43"/>
     <mergeCell ref="U43:W43"/>
-    <mergeCell ref="D45:E45"/>
     <mergeCell ref="H45:N45"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="H47:M47"/>

--- a/作業スケジュール.xlsx
+++ b/作業スケジュール.xlsx
@@ -46,9 +46,6 @@
     <t>足場のマップチップ</t>
   </si>
   <si>
-    <t>最後でも大丈夫</t>
-  </si>
-  <si>
     <t>背景</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>コドラの場合は前方４マス以内に主人公が入ると４マス分の炎をはいてくる</t>
+  </si>
+  <si>
+    <t>7日</t>
   </si>
   <si>
     <t>スケルトンの場合は前方２マス以内に主人公が入ると２マス分の近接攻撃をしてくる</t>
@@ -375,15 +375,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -396,6 +402,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -405,69 +419,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,13 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,15 +456,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,7 +503,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,19 +567,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,19 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +687,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,37 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,30 +729,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -694,42 +736,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,20 +764,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,6 +790,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,34 +832,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,22 +854,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -872,125 +878,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,9 +1019,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="B1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="S68" sqref="S68:T71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1379,9 +1388,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="S5" s="7">
-        <v>42592</v>
-      </c>
+      <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="7:20">
@@ -1417,54 +1424,50 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="S9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
     </row>
     <row r="10" spans="7:20">
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="7:20">
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="7:20">
       <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
     </row>
     <row r="13" spans="7:20">
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="S13" s="7">
-        <v>42593</v>
-      </c>
+      <c r="S13" s="7"/>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="2"/>
       <c r="G14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1473,18 +1476,16 @@
     </row>
     <row r="15" spans="7:20">
       <c r="G15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="S15" s="7">
-        <v>42592</v>
-      </c>
+      <c r="S15" s="8"/>
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="7:20">
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1493,7 +1494,7 @@
     </row>
     <row r="17" spans="7:20">
       <c r="G17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1502,7 +1503,7 @@
     </row>
     <row r="19" spans="7:14">
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1514,16 +1515,16 @@
     </row>
     <row r="20" spans="4:23">
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1534,18 +1535,18 @@
       <c r="O20" s="1"/>
       <c r="P20" s="3"/>
       <c r="S20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="8:20">
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1560,7 +1561,7 @@
     </row>
     <row r="22" spans="8:20">
       <c r="H22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1575,7 +1576,7 @@
     </row>
     <row r="23" spans="8:20">
       <c r="H23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1587,13 +1588,13 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="S23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="8:20">
       <c r="H24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1605,13 +1606,13 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="S24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="8:20">
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" s="1"/>
       <c r="S25" s="2"/>
@@ -1619,7 +1620,7 @@
     </row>
     <row r="26" spans="8:20">
       <c r="H26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1628,13 +1629,13 @@
       <c r="M26" s="1"/>
       <c r="O26" s="3"/>
       <c r="S26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="8:20">
       <c r="H27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1647,7 +1648,7 @@
     </row>
     <row r="28" spans="8:21">
       <c r="H28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1665,23 +1666,23 @@
     </row>
     <row r="29" spans="8:21">
       <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="3"/>
     </row>
     <row r="30" spans="8:20">
       <c r="H30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1692,7 +1693,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="S30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T30" s="2"/>
     </row>
@@ -1701,14 +1702,14 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="S31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T31" s="2"/>
     </row>
@@ -1717,7 +1718,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1728,7 +1729,7 @@
     </row>
     <row r="33" spans="8:20">
       <c r="H33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1743,7 +1744,7 @@
     </row>
     <row r="34" spans="8:20">
       <c r="H34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1752,13 +1753,13 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="S34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T34" s="2"/>
     </row>
     <row r="35" spans="8:20">
       <c r="H35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1771,7 +1772,7 @@
     </row>
     <row r="36" spans="8:22">
       <c r="H36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1786,7 +1787,7 @@
     </row>
     <row r="37" spans="8:22">
       <c r="H37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1796,7 +1797,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="S37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="1"/>
@@ -1804,7 +1805,7 @@
     </row>
     <row r="38" spans="8:22">
       <c r="H38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1817,18 +1818,18 @@
     </row>
     <row r="39" spans="8:23">
       <c r="H39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="S39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
@@ -1857,27 +1858,27 @@
     </row>
     <row r="43" spans="4:23">
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="S43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -1889,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1901,7 +1902,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="S45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T45" s="2"/>
     </row>
@@ -1910,10 +1911,10 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1923,7 +1924,7 @@
     </row>
     <row r="48" spans="8:20">
       <c r="H48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1933,7 +1934,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="S48" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="T48" s="2"/>
     </row>
@@ -1991,7 +1992,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="S52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T52" s="2"/>
     </row>
@@ -2012,7 +2013,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
@@ -2079,7 +2080,7 @@
         <v>76</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T58" s="2"/>
     </row>
@@ -2107,7 +2108,7 @@
         <v>80</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="T62" s="2"/>
     </row>
@@ -2155,7 +2156,7 @@
         <v>86</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="T68" s="2"/>
     </row>
@@ -2217,7 +2218,7 @@
         <v>96</v>
       </c>
       <c r="S76" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T76" s="2"/>
     </row>
@@ -2240,7 +2241,7 @@
         <v>99</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T79" s="2"/>
       <c r="U79" t="s">
@@ -2261,7 +2262,7 @@
         <v>103</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T81" s="2"/>
     </row>
@@ -2270,7 +2271,7 @@
         <v>104</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T82" s="2"/>
     </row>
@@ -2281,7 +2282,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
@@ -2300,7 +2301,7 @@
         <v>107</v>
       </c>
       <c r="S85" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T85" s="2"/>
       <c r="U85" s="1" t="s">
@@ -2328,11 +2329,11 @@
         <v>111</v>
       </c>
       <c r="S88" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T88" s="2"/>
       <c r="U88" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
@@ -2347,11 +2348,11 @@
       <c r="G90" t="s">
         <v>102</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="9" t="s">
         <v>113</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T90" s="2"/>
       <c r="U90" s="1" t="s">
@@ -2360,33 +2361,33 @@
       <c r="V90" s="1"/>
     </row>
     <row r="91" spans="8:20">
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="9" t="s">
         <v>115</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
     </row>
     <row r="92" spans="8:20">
-      <c r="H92" s="8" t="s">
+      <c r="H92" s="9" t="s">
         <v>116</v>
       </c>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="8:23">
-      <c r="H93" s="8" t="s">
+      <c r="H93" s="9" t="s">
         <v>117</v>
       </c>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="75">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="D5:E5"/>
@@ -2446,9 +2447,6 @@
     <mergeCell ref="U88:W88"/>
     <mergeCell ref="U90:V90"/>
     <mergeCell ref="U93:W93"/>
-    <mergeCell ref="S13:T14"/>
-    <mergeCell ref="S15:T17"/>
-    <mergeCell ref="S9:T12"/>
     <mergeCell ref="S24:T25"/>
     <mergeCell ref="S26:T28"/>
     <mergeCell ref="S20:T22"/>
@@ -2456,7 +2454,6 @@
     <mergeCell ref="S34:T36"/>
     <mergeCell ref="S37:T38"/>
     <mergeCell ref="O29:P36"/>
-    <mergeCell ref="S5:T8"/>
     <mergeCell ref="S48:T51"/>
     <mergeCell ref="S52:T53"/>
     <mergeCell ref="S56:T57"/>
